--- a/QuantLibXL/Data2/XLS/USD_YCBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCBootstrapping.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="24780" windowHeight="7815"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,6 +1088,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1945,12 +1951,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1977,6 +1977,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2288,6 +2294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2299,10 +2306,11 @@
     <col min="4" max="4" width="23.85546875" style="182" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="182" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.7109375" style="182" customWidth="1"/>
-    <col min="8" max="9" width="8" style="182"/>
+    <col min="8" max="8" width="4" style="182" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="182" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="2.7109375" style="182" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="182" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35" style="182" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.42578125" style="182" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="182" customWidth="1"/>
     <col min="15" max="16384" width="8" style="182"/>
   </cols>
@@ -2310,23 +2318,23 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="182" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="184" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="192"/>
-      <c r="K2" s="190" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="186"/>
+      <c r="K2" s="184" t="s">
         <v>196</v>
       </c>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="193"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="187"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="62"/>
@@ -2349,10 +2357,10 @@
       </c>
       <c r="E4" s="59"/>
       <c r="F4" s="58"/>
-      <c r="H4" s="185" t="s">
+      <c r="H4" s="193" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="186"/>
+      <c r="I4" s="194"/>
       <c r="K4" s="127"/>
       <c r="L4" s="126" t="s">
         <v>195</v>
@@ -2370,10 +2378,10 @@
       <c r="D5" s="63"/>
       <c r="E5" s="59"/>
       <c r="F5" s="58"/>
-      <c r="H5" s="183" t="s">
+      <c r="H5" s="195" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="184" t="s">
+      <c r="I5" s="196" t="s">
         <v>133</v>
       </c>
       <c r="K5" s="127"/>
@@ -2382,7 +2390,7 @@
       </c>
       <c r="M5" s="128" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="125"/>
     </row>
@@ -2394,10 +2402,10 @@
       <c r="D6" s="63"/>
       <c r="E6" s="59"/>
       <c r="F6" s="58"/>
-      <c r="H6" s="183" t="s">
+      <c r="H6" s="195" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="184"/>
+      <c r="I6" s="196"/>
       <c r="K6" s="127"/>
       <c r="L6" s="126" t="s">
         <v>193</v>
@@ -2417,10 +2425,10 @@
       </c>
       <c r="E7" s="59"/>
       <c r="F7" s="58"/>
-      <c r="H7" s="183" t="s">
+      <c r="H7" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="184"/>
+      <c r="I7" s="196"/>
       <c r="K7" s="124"/>
       <c r="L7" s="123"/>
       <c r="M7" s="123"/>
@@ -2436,16 +2444,16 @@
       </c>
       <c r="E8" s="59"/>
       <c r="F8" s="58"/>
-      <c r="H8" s="187" t="s">
+      <c r="H8" s="197" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="188" t="s">
+      <c r="I8" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="189"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="62"/>
@@ -2458,12 +2466,12 @@
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="58"/>
-      <c r="K9" s="190" t="s">
+      <c r="K9" s="184" t="s">
         <v>192</v>
       </c>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="193"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="185"/>
+      <c r="N9" s="187"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="62"/>
@@ -2486,7 +2494,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="87">
-        <v>41663.646377314813</v>
+        <v>41684.590590277781</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="58"/>
@@ -2540,7 +2548,7 @@
       </c>
       <c r="D14" s="84" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC#0003</v>
+        <v>_USDYC#0000</v>
       </c>
       <c r="E14" s="59"/>
       <c r="F14" s="58"/>
@@ -2711,7 +2719,7 @@
       <c r="B27" s="62"/>
       <c r="C27" s="66">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="D27" s="65">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2724,11 +2732,11 @@
       <c r="B28" s="62"/>
       <c r="C28" s="64">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
       <c r="D28" s="63">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.16022554290811455</v>
+        <v>0.16022554292226335</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="58"/>
@@ -2790,6 +2798,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2815,11 +2824,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="190"/>
       <c r="E1" s="33" t="s">
         <v>96</v>
       </c>
@@ -2853,7 +2862,7 @@
       </c>
       <c r="E2" s="14" t="str">
         <f>Discount_Deposits!F3</f>
-        <v>USD_YCRH_OND#0003</v>
+        <v>USD_YCRH_OND#0000</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
@@ -2871,11 +2880,11 @@
       </c>
       <c r="K2" s="12">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L2" s="11">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41659</v>
+        <v>41687</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2886,7 +2895,7 @@
       </c>
       <c r="E3" s="14" t="str">
         <f>Discount_FRAs!H3</f>
-        <v>USD_YCRH_TND#0003</v>
+        <v>USD_YCRH_TND#0000</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
@@ -2904,11 +2913,11 @@
       </c>
       <c r="K3" s="12">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41659</v>
+        <v>41687</v>
       </c>
       <c r="L3" s="11">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2919,7 +2928,7 @@
       </c>
       <c r="E4" s="14" t="str">
         <f>Discount_FRAs!H4</f>
-        <v>USD_YCRH_SND#0003</v>
+        <v>USD_YCRH_SND#0000</v>
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -2937,11 +2946,11 @@
       </c>
       <c r="K4" s="12">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L4" s="11">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4137,7 +4146,7 @@
       </c>
       <c r="E35" s="22" t="str">
         <f>Discount_Swaps!L6</f>
-        <v>USD_YCRH_OISSW#0003</v>
+        <v>USD_YCRH_OISSW#0000</v>
       </c>
       <c r="F35" s="21">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -4159,11 +4168,11 @@
       </c>
       <c r="K35" s="18">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L35" s="17">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41667</v>
+        <v>41695</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -4177,7 +4186,7 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>Discount_Swaps!L7</f>
-        <v>USD_YCRH_OIS2W#0003</v>
+        <v>USD_YCRH_OIS2W#0000</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4199,11 +4208,11 @@
       </c>
       <c r="K36" s="12">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L36" s="11">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41674</v>
+        <v>41702</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -4217,7 +4226,7 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>Discount_Swaps!L8</f>
-        <v>USD_YCRH_OIS3W#0003</v>
+        <v>USD_YCRH_OIS3W#0000</v>
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4239,11 +4248,11 @@
       </c>
       <c r="K37" s="12">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L37" s="11">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41681</v>
+        <v>41709</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -4257,7 +4266,7 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>Discount_Swaps!L9</f>
-        <v>USD_YCRH_OIS1M#0003</v>
+        <v>USD_YCRH_OIS1M#0000</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4279,11 +4288,11 @@
       </c>
       <c r="K38" s="12">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L38" s="11">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -4297,7 +4306,7 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>Discount_Swaps!L10</f>
-        <v>USD_YCRH_OIS2M#0003</v>
+        <v>USD_YCRH_OIS2M#0000</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4319,11 +4328,11 @@
       </c>
       <c r="K39" s="12">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L39" s="11">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -4337,7 +4346,7 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>Discount_Swaps!L11</f>
-        <v>USD_YCRH_OIS3M#0003</v>
+        <v>USD_YCRH_OIS3M#0000</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4359,11 +4368,11 @@
       </c>
       <c r="K40" s="12">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L40" s="11">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -4377,7 +4386,7 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>Discount_Swaps!L12</f>
-        <v>USD_YCRH_OIS4M#0003</v>
+        <v>USD_YCRH_OIS4M#0000</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4399,11 +4408,11 @@
       </c>
       <c r="K41" s="12">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L41" s="11">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -4417,7 +4426,7 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>Discount_Swaps!L13</f>
-        <v>USD_YCRH_OIS5M#0003</v>
+        <v>USD_YCRH_OIS5M#0000</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4439,11 +4448,11 @@
       </c>
       <c r="K42" s="12">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L42" s="11">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -4457,7 +4466,7 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>Discount_Swaps!L14</f>
-        <v>USD_YCRH_OIS6M#0003</v>
+        <v>USD_YCRH_OIS6M#0000</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4479,11 +4488,11 @@
       </c>
       <c r="K43" s="12">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L43" s="11">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -4497,7 +4506,7 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>Discount_Swaps!L15</f>
-        <v>USD_YCRH_OIS7M#0003</v>
+        <v>USD_YCRH_OIS7M#0000</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4519,11 +4528,11 @@
       </c>
       <c r="K44" s="12">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L44" s="11">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -4537,7 +4546,7 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>Discount_Swaps!L16</f>
-        <v>USD_YCRH_OIS8M#0003</v>
+        <v>USD_YCRH_OIS8M#0000</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4559,11 +4568,11 @@
       </c>
       <c r="K45" s="12">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L45" s="11">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>41904</v>
+        <v>41932</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -4577,7 +4586,7 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>Discount_Swaps!L17</f>
-        <v>USD_YCRH_OIS9M#0003</v>
+        <v>USD_YCRH_OIS9M#0000</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4599,11 +4608,11 @@
       </c>
       <c r="K46" s="12">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L46" s="11">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>41933</v>
+        <v>41961</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -4617,7 +4626,7 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>Discount_Swaps!L18</f>
-        <v>USD_YCRH_OIS10M#0003</v>
+        <v>USD_YCRH_OIS10M#0000</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4639,11 +4648,11 @@
       </c>
       <c r="K47" s="12">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L47" s="11">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>41964</v>
+        <v>41991</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -4657,7 +4666,7 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>Discount_Swaps!L19</f>
-        <v>USD_YCRH_OIS11M#0003</v>
+        <v>USD_YCRH_OIS11M#0000</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4678,11 +4687,11 @@
       </c>
       <c r="K48" s="12">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L48" s="11">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>41995</v>
+        <v>42023</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -4696,7 +4705,7 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>Discount_Swaps!L20</f>
-        <v>USD_YCRH_OIS1Y#0003</v>
+        <v>USD_YCRH_OIS1Y#0000</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4717,11 +4726,11 @@
       </c>
       <c r="K49" s="12">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L49" s="11">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -4738,7 +4747,7 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>Discount_Swaps!L21</f>
-        <v>USD_YCRH_OIS13M#0003</v>
+        <v>USD_YCRH_OIS13M#0000</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4759,11 +4768,11 @@
       </c>
       <c r="K50" s="12">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L50" s="11">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42058</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -4780,7 +4789,7 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>Discount_Swaps!L22</f>
-        <v>USD_YCRH_OIS14M#0003</v>
+        <v>USD_YCRH_OIS14M#0000</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4801,11 +4810,11 @@
       </c>
       <c r="K51" s="12">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L51" s="11">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42086</v>
+        <v>42114</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -4822,7 +4831,7 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>Discount_Swaps!L23</f>
-        <v>USD_YCRH_OIS15M#0003</v>
+        <v>USD_YCRH_OIS15M#0000</v>
       </c>
       <c r="F52" s="13">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4843,11 +4852,11 @@
       </c>
       <c r="K52" s="12">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L52" s="11">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -4864,7 +4873,7 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>Discount_Swaps!L24</f>
-        <v>USD_YCRH_OIS16M#0003</v>
+        <v>USD_YCRH_OIS16M#0000</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4885,11 +4894,11 @@
       </c>
       <c r="K53" s="12">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L53" s="11">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42145</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -4906,7 +4915,7 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>Discount_Swaps!L25</f>
-        <v>USD_YCRH_OIS17M#0003</v>
+        <v>USD_YCRH_OIS17M#0000</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4927,11 +4936,11 @@
       </c>
       <c r="K54" s="12">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L54" s="11">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42177</v>
+        <v>42205</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -4948,7 +4957,7 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>Discount_Swaps!L26</f>
-        <v>USD_YCRH_OIS18M#0003</v>
+        <v>USD_YCRH_OIS18M#0000</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4969,11 +4978,11 @@
       </c>
       <c r="K55" s="12">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L55" s="11">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -4990,7 +4999,7 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>Discount_Swaps!L27</f>
-        <v>USD_YCRH_OIS19M#0003</v>
+        <v>USD_YCRH_OIS19M#0000</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -5011,11 +5020,11 @@
       </c>
       <c r="K56" s="12">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L56" s="11">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>42237</v>
+        <v>42265</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -5032,7 +5041,7 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>Discount_Swaps!L28</f>
-        <v>USD_YCRH_OIS20M#0003</v>
+        <v>USD_YCRH_OIS20M#0000</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -5053,11 +5062,11 @@
       </c>
       <c r="K57" s="12">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L57" s="11">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>42268</v>
+        <v>42296</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -5074,7 +5083,7 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>Discount_Swaps!L29</f>
-        <v>USD_YCRH_OIS21M#0003</v>
+        <v>USD_YCRH_OIS21M#0000</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -5095,11 +5104,11 @@
       </c>
       <c r="K58" s="12">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L58" s="11">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -5116,7 +5125,7 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>Discount_Swaps!L30</f>
-        <v>USD_YCRH_OIS22M#0003</v>
+        <v>USD_YCRH_OIS22M#0000</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5137,11 +5146,11 @@
       </c>
       <c r="K59" s="12">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L59" s="11">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>42331</v>
+        <v>42356</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -5158,7 +5167,7 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>Discount_Swaps!L31</f>
-        <v>USD_YCRH_OIS23M#0003</v>
+        <v>USD_YCRH_OIS23M#0000</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5179,11 +5188,11 @@
       </c>
       <c r="K60" s="12">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L60" s="11">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>42359</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -5200,7 +5209,7 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>Discount_Swaps!L32</f>
-        <v>USD_YCRH_OIS2Y#0003</v>
+        <v>USD_YCRH_OIS2Y#0000</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5221,11 +5230,11 @@
       </c>
       <c r="K61" s="12">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L61" s="11">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
@@ -5242,7 +5251,7 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>Discount_Swaps!L33</f>
-        <v>USD_YCRH_OIS27M#0003</v>
+        <v>USD_YCRH_OIS27M#0000</v>
       </c>
       <c r="F62" s="13">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5263,11 +5272,11 @@
       </c>
       <c r="K62" s="12">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L62" s="11">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>42481</v>
+        <v>42508</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -5284,7 +5293,7 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>Discount_Swaps!L34</f>
-        <v>USD_YCRH_OIS30M#0003</v>
+        <v>USD_YCRH_OIS30M#0000</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5305,11 +5314,11 @@
       </c>
       <c r="K63" s="12">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L63" s="11">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42572</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -5326,7 +5335,7 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>Discount_Swaps!L35</f>
-        <v>USD_YCRH_OIS33M#0003</v>
+        <v>USD_YCRH_OIS33M#0000</v>
       </c>
       <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5347,11 +5356,11 @@
       </c>
       <c r="K64" s="12">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L64" s="11">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>42664</v>
+        <v>42692</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
@@ -5368,7 +5377,7 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>Discount_Swaps!L36</f>
-        <v>USD_YCRH_OIS3Y#0003</v>
+        <v>USD_YCRH_OIS3Y#0000</v>
       </c>
       <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5389,11 +5398,11 @@
       </c>
       <c r="K65" s="12">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L65" s="11">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
@@ -5410,7 +5419,7 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>Discount_Swaps!L37</f>
-        <v>USD_YCRH_OIS39M#0003</v>
+        <v>USD_YCRH_OIS39M#0000</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5431,11 +5440,11 @@
       </c>
       <c r="K66" s="12">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L66" s="11">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42846</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -5452,7 +5461,7 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>Discount_Swaps!L38</f>
-        <v>USD_YCRH_OIS42M#0003</v>
+        <v>USD_YCRH_OIS42M#0000</v>
       </c>
       <c r="F67" s="13">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5473,11 +5482,11 @@
       </c>
       <c r="K67" s="12">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L67" s="11">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>42937</v>
+        <v>42965</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -5494,7 +5503,7 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>Discount_Swaps!L39</f>
-        <v>USD_YCRH_OIS45M#0003</v>
+        <v>USD_YCRH_OIS45M#0000</v>
       </c>
       <c r="F68" s="13">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5515,11 +5524,11 @@
       </c>
       <c r="K68" s="12">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L68" s="11">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43031</v>
+        <v>43059</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
@@ -5536,7 +5545,7 @@
       </c>
       <c r="E69" s="14" t="str">
         <f>Discount_Swaps!L40</f>
-        <v>USD_YCRH_OIS4Y#0003</v>
+        <v>USD_YCRH_OIS4Y#0000</v>
       </c>
       <c r="F69" s="13">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5557,11 +5566,11 @@
       </c>
       <c r="K69" s="12">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L69" s="11">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
@@ -5578,7 +5587,7 @@
       </c>
       <c r="E70" s="14" t="str">
         <f>Discount_Swaps!L41</f>
-        <v>USD_YCRH_OIS51M#0003</v>
+        <v>USD_YCRH_OIS51M#0000</v>
       </c>
       <c r="F70" s="13">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5599,11 +5608,11 @@
       </c>
       <c r="K70" s="12">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L70" s="11">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43213</v>
+        <v>43238</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
@@ -5620,7 +5629,7 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>Discount_Swaps!L42</f>
-        <v>USD_YCRH_OIS54M#0003</v>
+        <v>USD_YCRH_OIS54M#0000</v>
       </c>
       <c r="F71" s="13">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5641,11 +5650,11 @@
       </c>
       <c r="K71" s="12">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L71" s="11">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>43304</v>
+        <v>43332</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -5662,7 +5671,7 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>Discount_Swaps!L43</f>
-        <v>USD_YCRH_OIS57M#0003</v>
+        <v>USD_YCRH_OIS57M#0000</v>
       </c>
       <c r="F72" s="13">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5683,11 +5692,11 @@
       </c>
       <c r="K72" s="12">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L72" s="11">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>43395</v>
+        <v>43423</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
@@ -5704,7 +5713,7 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>Discount_Swaps!L44</f>
-        <v>USD_YCRH_OIS5Y#0003</v>
+        <v>USD_YCRH_OIS5Y#0000</v>
       </c>
       <c r="F73" s="13">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5725,11 +5734,11 @@
       </c>
       <c r="K73" s="12">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L73" s="11">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
@@ -5746,7 +5755,7 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>Discount_Swaps!L45</f>
-        <v>USD_YCRH_OIS6Y#0003</v>
+        <v>USD_YCRH_OIS6Y#0000</v>
       </c>
       <c r="F74" s="13">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5767,11 +5776,11 @@
       </c>
       <c r="K74" s="12">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L74" s="11">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
@@ -5788,7 +5797,7 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>Discount_Swaps!L46</f>
-        <v>USD_YCRH_OIS7Y#0003</v>
+        <v>USD_YCRH_OIS7Y#0000</v>
       </c>
       <c r="F75" s="13">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5809,11 +5818,11 @@
       </c>
       <c r="K75" s="12">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L75" s="11">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
@@ -5830,7 +5839,7 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>Discount_Swaps!L47</f>
-        <v>USD_YCRH_OIS8Y#0003</v>
+        <v>USD_YCRH_OIS8Y#0000</v>
       </c>
       <c r="F76" s="13">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -5851,11 +5860,11 @@
       </c>
       <c r="K76" s="12">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L76" s="11">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -5872,7 +5881,7 @@
       </c>
       <c r="E77" s="14" t="str">
         <f>Discount_Swaps!L48</f>
-        <v>USD_YCRH_OIS9Y#0003</v>
+        <v>USD_YCRH_OIS9Y#0000</v>
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -5893,11 +5902,11 @@
       </c>
       <c r="K77" s="12">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L77" s="11">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
@@ -5914,7 +5923,7 @@
       </c>
       <c r="E78" s="14" t="str">
         <f>Discount_Swaps!L49</f>
-        <v>USD_YCRH_OIS10Y#0003</v>
+        <v>USD_YCRH_OIS10Y#0000</v>
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
@@ -5935,11 +5944,11 @@
       </c>
       <c r="K78" s="12">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L78" s="11">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
@@ -5956,7 +5965,7 @@
       </c>
       <c r="E79" s="14" t="str">
         <f>Discount_Swaps!L50</f>
-        <v>USD_YCRH_OIS12Y#0003</v>
+        <v>USD_YCRH_OIS12Y#0000</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
@@ -5977,11 +5986,11 @@
       </c>
       <c r="K79" s="12">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L79" s="11">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
@@ -5998,7 +6007,7 @@
       </c>
       <c r="E80" s="14" t="str">
         <f>Discount_Swaps!L51</f>
-        <v>USD_YCRH_OIS15Y#0003</v>
+        <v>USD_YCRH_OIS15Y#0000</v>
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
@@ -6019,11 +6028,11 @@
       </c>
       <c r="K80" s="12">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L80" s="11">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
@@ -6037,7 +6046,7 @@
       </c>
       <c r="E81" s="14" t="str">
         <f>Discount_Swaps!L52</f>
-        <v>USD_YCRH_OIS20Y#0003</v>
+        <v>USD_YCRH_OIS20Y#0000</v>
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
@@ -6058,11 +6067,11 @@
       </c>
       <c r="K81" s="12">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L81" s="11">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
@@ -6076,7 +6085,7 @@
       </c>
       <c r="E82" s="14" t="str">
         <f>Discount_Swaps!L53</f>
-        <v>USD_YCRH_OIS25Y#0003</v>
+        <v>USD_YCRH_OIS25Y#0000</v>
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
@@ -6097,11 +6106,11 @@
       </c>
       <c r="K82" s="12">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L82" s="11">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
@@ -6115,7 +6124,7 @@
       </c>
       <c r="E83" s="14" t="str">
         <f>Discount_Swaps!L54</f>
-        <v>USD_YCRH_OIS27Y#0003</v>
+        <v>USD_YCRH_OIS27Y#0000</v>
       </c>
       <c r="F83" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
@@ -6136,11 +6145,11 @@
       </c>
       <c r="K83" s="12">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L83" s="11">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>51522</v>
+        <v>51550</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
@@ -6157,7 +6166,7 @@
       </c>
       <c r="E84" s="14" t="str">
         <f>Discount_Swaps!L55</f>
-        <v>USD_YCRH_OIS30Y#0003</v>
+        <v>USD_YCRH_OIS30Y#0000</v>
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
@@ -6178,11 +6187,11 @@
       </c>
       <c r="K84" s="12">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L84" s="11">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
@@ -6199,7 +6208,7 @@
       </c>
       <c r="E85" s="14" t="str">
         <f>Discount_Swaps!L56</f>
-        <v>USD_YCRH_OIS35Y#0003</v>
+        <v>USD_YCRH_OIS35Y#0000</v>
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
@@ -6220,11 +6229,11 @@
       </c>
       <c r="K85" s="12">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L85" s="11">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
@@ -6241,7 +6250,7 @@
       </c>
       <c r="E86" s="14" t="str">
         <f>Discount_Swaps!L57</f>
-        <v>USD_YCRH_OIS40Y#0003</v>
+        <v>USD_YCRH_OIS40Y#0000</v>
       </c>
       <c r="F86" s="13">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
@@ -6262,11 +6271,11 @@
       </c>
       <c r="K86" s="12">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L86" s="11">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
@@ -6283,7 +6292,7 @@
       </c>
       <c r="E87" s="14" t="str">
         <f>Discount_Swaps!L58</f>
-        <v>USD_YCRH_OIS45Y#0003</v>
+        <v>USD_YCRH_OIS45Y#0000</v>
       </c>
       <c r="F87" s="13">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
@@ -6304,11 +6313,11 @@
       </c>
       <c r="K87" s="12">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L87" s="11">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>58096</v>
+        <v>58124</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
@@ -6325,7 +6334,7 @@
       </c>
       <c r="E88" s="8" t="str">
         <f>Discount_Swaps!L59</f>
-        <v>USD_YCRH_OIS50Y#0003</v>
+        <v>USD_YCRH_OIS50Y#0000</v>
       </c>
       <c r="F88" s="7">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
@@ -6346,11 +6355,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
@@ -7957,6 +7966,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7980,10 +7990,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="191" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="198"/>
+      <c r="B1" s="192"/>
       <c r="D1" s="53" t="s">
         <v>105</v>
       </c>
@@ -8023,11 +8033,11 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41659</v>
+        <v>41687</v>
       </c>
       <c r="I2" s="34">
         <v>0.99998750015624804</v>
@@ -8059,11 +8069,11 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41659</v>
+        <v>41687</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="I3" s="34">
         <v>0.99998333355907243</v>
@@ -8099,11 +8109,11 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41667</v>
+        <v>41695</v>
       </c>
       <c r="I4" s="34">
         <v>0.99996797293993267</v>
@@ -8139,11 +8149,11 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41674</v>
+        <v>41702</v>
       </c>
       <c r="I5" s="34">
         <v>0.99995261279267844</v>
@@ -8180,11 +8190,11 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41681</v>
+        <v>41709</v>
       </c>
       <c r="I6" s="34">
         <v>0.9999366698479325</v>
@@ -8203,7 +8213,7 @@
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCRH_RateHelpersSelected#0003</v>
+        <v>USD_YCRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -8222,18 +8232,18 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99991358958633969</v>
+        <v>0.99992033857777995</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>144</v>
@@ -8256,18 +8266,18 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99984896496761377</v>
+        <v>0.99983985653965901</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>145</v>
@@ -8290,18 +8300,18 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="I9" s="34">
-        <v>0.99976094229168699</v>
+        <v>0.99976338561423739</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>146</v>
@@ -8324,18 +8334,18 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="I10" s="34">
-        <v>0.99968009726304141</v>
+        <v>0.99968009726302642</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>147</v>
@@ -8358,18 +8368,18 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
       <c r="I11" s="34">
-        <v>0.99958824630488285</v>
+        <v>0.99959599011312295</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>148</v>
@@ -8392,18 +8402,18 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="I12" s="34">
-        <v>0.99950090778758016</v>
+        <v>0.99950090778758038</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>149</v>
@@ -8426,11 +8436,11 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="I13" s="34">
         <v>0.99938891923855211</v>
@@ -8460,11 +8470,11 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>41904</v>
+        <v>41932</v>
       </c>
       <c r="I14" s="34">
         <v>0.99927218485418445</v>
@@ -8494,11 +8504,11 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>41933</v>
+        <v>41961</v>
       </c>
       <c r="I15" s="34">
         <v>0.99914230552339811</v>
@@ -8528,18 +8538,18 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>41964</v>
+        <v>41991</v>
       </c>
       <c r="I16" s="34">
-        <v>0.99899632518978487</v>
+        <v>0.99899956873376194</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>153</v>
@@ -8562,18 +8572,18 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>41995</v>
+        <v>42023</v>
       </c>
       <c r="I17" s="34">
-        <v>0.99885864646922162</v>
+        <v>0.99885864646922173</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>154</v>
@@ -8596,14 +8606,14 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="I18" s="34">
-        <v>0.99867714707379585</v>
+        <v>0.99867714707379573</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
@@ -8630,18 +8640,18 @@
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42058</v>
+        <v>42081</v>
       </c>
       <c r="I19" s="34">
-        <v>0.9984707519754531</v>
+        <v>0.99848974863085838</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>156</v>
@@ -8664,18 +8674,18 @@
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42086</v>
+        <v>42114</v>
       </c>
       <c r="I20" s="34">
-        <v>0.99825805601960138</v>
+        <v>0.99825805601953499</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>157</v>
@@ -8698,18 +8708,18 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
       <c r="I21" s="34">
-        <v>0.99801453353670466</v>
+        <v>0.99801885659908907</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>158</v>
@@ -8732,18 +8742,18 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42145</v>
+        <v>42173</v>
       </c>
       <c r="I22" s="34">
-        <v>0.99772352830937017</v>
+        <v>0.99772352830937028</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>159</v>
@@ -8766,14 +8776,14 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42177</v>
+        <v>42205</v>
       </c>
       <c r="I23" s="34">
-        <v>0.99738839591268968</v>
+        <v>0.9973883959126898</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
@@ -8800,14 +8810,14 @@
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
       <c r="I24" s="34">
-        <v>0.99703135945421373</v>
+        <v>0.99703135945421395</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
@@ -8834,11 +8844,11 @@
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>42237</v>
+        <v>42265</v>
       </c>
       <c r="I25" s="34">
         <v>0.99660851654118898</v>
@@ -8868,11 +8878,11 @@
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42268</v>
+        <v>42296</v>
       </c>
       <c r="I26" s="34">
         <v>0.99612483944022556</v>
@@ -8902,11 +8912,11 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
       <c r="I27" s="34">
         <v>0.99559982395257263</v>
@@ -8936,18 +8946,18 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42331</v>
+        <v>42356</v>
       </c>
       <c r="I28" s="34">
-        <v>0.99500308878596411</v>
+        <v>0.99502526050959583</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>165</v>
@@ -8970,18 +8980,18 @@
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42359</v>
+        <v>42387</v>
       </c>
       <c r="I29" s="34">
-        <v>0.99439083277065377</v>
+        <v>0.99439083277065399</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>166</v>
@@ -9004,11 +9014,11 @@
       </c>
       <c r="G30" s="40">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
       <c r="I30" s="34">
         <v>0.99364056874213946</v>
@@ -9038,14 +9048,14 @@
       </c>
       <c r="G31" s="40">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
       <c r="I31" s="34">
-        <v>0.97946922259552782</v>
+        <v>0.97946922259552804</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
@@ -9072,14 +9082,14 @@
       </c>
       <c r="G32" s="40">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H32" s="39">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
       <c r="I32" s="34">
-        <v>0.95576080113882356</v>
+        <v>0.95576080113882389</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
@@ -9106,14 +9116,14 @@
       </c>
       <c r="G33" s="40">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H33" s="39">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
       <c r="I33" s="34">
-        <v>0.92578356019561259</v>
+        <v>0.92578356019561292</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
@@ -9140,14 +9150,14 @@
       </c>
       <c r="G34" s="40">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H34" s="39">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
       <c r="I34" s="34">
-        <v>0.89198951756215372</v>
+        <v>0.89198951756215417</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
@@ -9174,14 +9184,14 @@
       </c>
       <c r="G35" s="40">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H35" s="39">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
       <c r="I35" s="34">
-        <v>0.85688794978518645</v>
+        <v>0.85688794978518679</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
@@ -9208,14 +9218,14 @@
       </c>
       <c r="G36" s="40">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H36" s="39">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
       <c r="I36" s="34">
-        <v>0.82147247118002886</v>
+        <v>0.82147247118002897</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
@@ -9242,14 +9252,14 @@
       </c>
       <c r="G37" s="40">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H37" s="39">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
       <c r="I37" s="34">
-        <v>0.78663212342412958</v>
+        <v>0.78663212342412969</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
@@ -9276,11 +9286,11 @@
       </c>
       <c r="G38" s="40">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H38" s="39">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
       <c r="I38" s="34">
         <v>0.75295358989388561</v>
@@ -9306,14 +9316,14 @@
       </c>
       <c r="G39" s="40">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H39" s="39">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
       <c r="I39" s="34">
-        <v>0.68768032069953344</v>
+        <v>0.68768032074421914</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>176</v>
@@ -9336,14 +9346,14 @@
       </c>
       <c r="G40" s="40">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H40" s="39">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
       <c r="I40" s="34">
-        <v>0.60107460865657047</v>
+        <v>0.6010746086633999</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>177</v>
@@ -9366,14 +9376,14 @@
       </c>
       <c r="G41" s="40">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H41" s="39">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
       <c r="I41" s="34">
-        <v>0.48463027484272148</v>
+        <v>0.48463027487983718</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>178</v>
@@ -9396,14 +9406,14 @@
       </c>
       <c r="G42" s="40">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H42" s="39">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
       <c r="I42" s="34">
-        <v>0.39512551561823256</v>
+        <v>0.3951255156426014</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>179</v>
@@ -9426,14 +9436,14 @@
       </c>
       <c r="G43" s="40">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H43" s="39">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
       <c r="I43" s="34">
-        <v>0.26726040401996259</v>
+        <v>0.26726040404446033</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>180</v>
@@ -9456,14 +9466,14 @@
       </c>
       <c r="G44" s="40">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H44" s="39">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
       <c r="I44" s="34">
-        <v>0.22358859574994408</v>
+        <v>0.22358859577016243</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>181</v>
@@ -9486,14 +9496,14 @@
       </c>
       <c r="G45" s="40">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H45" s="39">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>58096</v>
+        <v>58124</v>
       </c>
       <c r="I45" s="34">
-        <v>0.18903064249423554</v>
+        <v>0.18903064251119273</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>182</v>
@@ -9516,14 +9526,14 @@
       </c>
       <c r="G46" s="40">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H46" s="39">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
       <c r="I46" s="34">
-        <v>0.16022554290811455</v>
+        <v>0.16022554292226335</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>183</v>
@@ -11470,6 +11480,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11545,7 +11556,7 @@
       </c>
       <c r="F3" s="99" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCRH_OND#0003</v>
+        <v>USD_YCRH_OND#0000</v>
       </c>
       <c r="G3" s="98" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -11576,6 +11587,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11660,7 +11672,7 @@
       </c>
       <c r="H3" s="139" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCRH_TND#0003</v>
+        <v>USD_YCRH_TND#0000</v>
       </c>
       <c r="I3" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11692,7 +11704,7 @@
       </c>
       <c r="H4" s="135" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCRH_SND#0003</v>
+        <v>USD_YCRH_SND#0000</v>
       </c>
       <c r="I4" s="134" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11726,6 +11738,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11847,7 +11860,7 @@
       </c>
       <c r="L4" s="172" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS_Libor#0003</v>
+        <v>USD_YCRH_OIS_Libor#0000</v>
       </c>
       <c r="M4" s="171" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -11906,7 +11919,7 @@
       </c>
       <c r="L6" s="161" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OISSW#0003</v>
+        <v>USD_YCRH_OISSW#0000</v>
       </c>
       <c r="M6" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -11954,7 +11967,7 @@
       </c>
       <c r="L7" s="161" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS2W#0003</v>
+        <v>USD_YCRH_OIS2W#0000</v>
       </c>
       <c r="M7" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -11999,7 +12012,7 @@
       </c>
       <c r="L8" s="161" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS3W#0003</v>
+        <v>USD_YCRH_OIS3W#0000</v>
       </c>
       <c r="M8" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -12044,7 +12057,7 @@
       </c>
       <c r="L9" s="161" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS1M#0003</v>
+        <v>USD_YCRH_OIS1M#0000</v>
       </c>
       <c r="M9" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -12089,7 +12102,7 @@
       </c>
       <c r="L10" s="161" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS2M#0003</v>
+        <v>USD_YCRH_OIS2M#0000</v>
       </c>
       <c r="M10" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -12134,7 +12147,7 @@
       </c>
       <c r="L11" s="161" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS3M#0003</v>
+        <v>USD_YCRH_OIS3M#0000</v>
       </c>
       <c r="M11" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -12179,7 +12192,7 @@
       </c>
       <c r="L12" s="161" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS4M#0003</v>
+        <v>USD_YCRH_OIS4M#0000</v>
       </c>
       <c r="M12" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -12224,7 +12237,7 @@
       </c>
       <c r="L13" s="161" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS5M#0003</v>
+        <v>USD_YCRH_OIS5M#0000</v>
       </c>
       <c r="M13" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -12269,7 +12282,7 @@
       </c>
       <c r="L14" s="161" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS6M#0003</v>
+        <v>USD_YCRH_OIS6M#0000</v>
       </c>
       <c r="M14" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -12314,7 +12327,7 @@
       </c>
       <c r="L15" s="161" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS7M#0003</v>
+        <v>USD_YCRH_OIS7M#0000</v>
       </c>
       <c r="M15" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -12359,7 +12372,7 @@
       </c>
       <c r="L16" s="161" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS8M#0003</v>
+        <v>USD_YCRH_OIS8M#0000</v>
       </c>
       <c r="M16" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -12404,7 +12417,7 @@
       </c>
       <c r="L17" s="161" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS9M#0003</v>
+        <v>USD_YCRH_OIS9M#0000</v>
       </c>
       <c r="M17" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -12449,7 +12462,7 @@
       </c>
       <c r="L18" s="161" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS10M#0003</v>
+        <v>USD_YCRH_OIS10M#0000</v>
       </c>
       <c r="M18" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -12494,7 +12507,7 @@
       </c>
       <c r="L19" s="161" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS11M#0003</v>
+        <v>USD_YCRH_OIS11M#0000</v>
       </c>
       <c r="M19" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -12539,7 +12552,7 @@
       </c>
       <c r="L20" s="161" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS1Y#0003</v>
+        <v>USD_YCRH_OIS1Y#0000</v>
       </c>
       <c r="M20" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -12584,7 +12597,7 @@
       </c>
       <c r="L21" s="161" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS13M#0003</v>
+        <v>USD_YCRH_OIS13M#0000</v>
       </c>
       <c r="M21" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -12629,7 +12642,7 @@
       </c>
       <c r="L22" s="161" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS14M#0003</v>
+        <v>USD_YCRH_OIS14M#0000</v>
       </c>
       <c r="M22" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -12674,7 +12687,7 @@
       </c>
       <c r="L23" s="161" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS15M#0003</v>
+        <v>USD_YCRH_OIS15M#0000</v>
       </c>
       <c r="M23" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -12719,7 +12732,7 @@
       </c>
       <c r="L24" s="161" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS16M#0003</v>
+        <v>USD_YCRH_OIS16M#0000</v>
       </c>
       <c r="M24" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -12764,7 +12777,7 @@
       </c>
       <c r="L25" s="161" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS17M#0003</v>
+        <v>USD_YCRH_OIS17M#0000</v>
       </c>
       <c r="M25" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -12809,7 +12822,7 @@
       </c>
       <c r="L26" s="161" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS18M#0003</v>
+        <v>USD_YCRH_OIS18M#0000</v>
       </c>
       <c r="M26" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -12854,7 +12867,7 @@
       </c>
       <c r="L27" s="161" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS19M#0003</v>
+        <v>USD_YCRH_OIS19M#0000</v>
       </c>
       <c r="M27" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -12899,7 +12912,7 @@
       </c>
       <c r="L28" s="161" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS20M#0003</v>
+        <v>USD_YCRH_OIS20M#0000</v>
       </c>
       <c r="M28" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -12944,7 +12957,7 @@
       </c>
       <c r="L29" s="161" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS21M#0003</v>
+        <v>USD_YCRH_OIS21M#0000</v>
       </c>
       <c r="M29" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -12989,7 +13002,7 @@
       </c>
       <c r="L30" s="161" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS22M#0003</v>
+        <v>USD_YCRH_OIS22M#0000</v>
       </c>
       <c r="M30" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -13034,7 +13047,7 @@
       </c>
       <c r="L31" s="161" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS23M#0003</v>
+        <v>USD_YCRH_OIS23M#0000</v>
       </c>
       <c r="M31" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -13079,7 +13092,7 @@
       </c>
       <c r="L32" s="161" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS2Y#0003</v>
+        <v>USD_YCRH_OIS2Y#0000</v>
       </c>
       <c r="M32" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -13124,7 +13137,7 @@
       </c>
       <c r="L33" s="161" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS27M#0003</v>
+        <v>USD_YCRH_OIS27M#0000</v>
       </c>
       <c r="M33" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -13169,7 +13182,7 @@
       </c>
       <c r="L34" s="161" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS30M#0003</v>
+        <v>USD_YCRH_OIS30M#0000</v>
       </c>
       <c r="M34" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -13214,7 +13227,7 @@
       </c>
       <c r="L35" s="161" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS33M#0003</v>
+        <v>USD_YCRH_OIS33M#0000</v>
       </c>
       <c r="M35" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -13259,7 +13272,7 @@
       </c>
       <c r="L36" s="161" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS3Y#0003</v>
+        <v>USD_YCRH_OIS3Y#0000</v>
       </c>
       <c r="M36" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -13304,7 +13317,7 @@
       </c>
       <c r="L37" s="161" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS39M#0003</v>
+        <v>USD_YCRH_OIS39M#0000</v>
       </c>
       <c r="M37" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -13349,7 +13362,7 @@
       </c>
       <c r="L38" s="161" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS42M#0003</v>
+        <v>USD_YCRH_OIS42M#0000</v>
       </c>
       <c r="M38" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -13394,7 +13407,7 @@
       </c>
       <c r="L39" s="161" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS45M#0003</v>
+        <v>USD_YCRH_OIS45M#0000</v>
       </c>
       <c r="M39" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -13439,7 +13452,7 @@
       </c>
       <c r="L40" s="161" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS4Y#0003</v>
+        <v>USD_YCRH_OIS4Y#0000</v>
       </c>
       <c r="M40" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -13484,7 +13497,7 @@
       </c>
       <c r="L41" s="161" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS51M#0003</v>
+        <v>USD_YCRH_OIS51M#0000</v>
       </c>
       <c r="M41" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -13529,7 +13542,7 @@
       </c>
       <c r="L42" s="161" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS54M#0003</v>
+        <v>USD_YCRH_OIS54M#0000</v>
       </c>
       <c r="M42" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -13574,7 +13587,7 @@
       </c>
       <c r="L43" s="161" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS57M#0003</v>
+        <v>USD_YCRH_OIS57M#0000</v>
       </c>
       <c r="M43" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -13619,7 +13632,7 @@
       </c>
       <c r="L44" s="161" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS5Y#0003</v>
+        <v>USD_YCRH_OIS5Y#0000</v>
       </c>
       <c r="M44" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -13664,7 +13677,7 @@
       </c>
       <c r="L45" s="161" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS6Y#0003</v>
+        <v>USD_YCRH_OIS6Y#0000</v>
       </c>
       <c r="M45" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -13709,7 +13722,7 @@
       </c>
       <c r="L46" s="161" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS7Y#0003</v>
+        <v>USD_YCRH_OIS7Y#0000</v>
       </c>
       <c r="M46" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -13754,7 +13767,7 @@
       </c>
       <c r="L47" s="161" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS8Y#0003</v>
+        <v>USD_YCRH_OIS8Y#0000</v>
       </c>
       <c r="M47" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -13799,7 +13812,7 @@
       </c>
       <c r="L48" s="161" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS9Y#0003</v>
+        <v>USD_YCRH_OIS9Y#0000</v>
       </c>
       <c r="M48" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -13844,7 +13857,7 @@
       </c>
       <c r="L49" s="161" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS10Y#0003</v>
+        <v>USD_YCRH_OIS10Y#0000</v>
       </c>
       <c r="M49" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -13889,7 +13902,7 @@
       </c>
       <c r="L50" s="161" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS12Y#0003</v>
+        <v>USD_YCRH_OIS12Y#0000</v>
       </c>
       <c r="M50" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -13934,7 +13947,7 @@
       </c>
       <c r="L51" s="161" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS15Y#0003</v>
+        <v>USD_YCRH_OIS15Y#0000</v>
       </c>
       <c r="M51" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -13979,7 +13992,7 @@
       </c>
       <c r="L52" s="161" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS20Y#0003</v>
+        <v>USD_YCRH_OIS20Y#0000</v>
       </c>
       <c r="M52" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -14024,7 +14037,7 @@
       </c>
       <c r="L53" s="161" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS25Y#0003</v>
+        <v>USD_YCRH_OIS25Y#0000</v>
       </c>
       <c r="M53" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -14069,7 +14082,7 @@
       </c>
       <c r="L54" s="161" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS27Y#0003</v>
+        <v>USD_YCRH_OIS27Y#0000</v>
       </c>
       <c r="M54" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -14078,11 +14091,11 @@
       <c r="N54" s="156"/>
       <c r="P54" s="159">
         <f>_xll.qlRateHelperEarliestDate($L54)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="Q54" s="159">
         <f>_xll.qlRateHelperLatestDate($L54)</f>
-        <v>51522</v>
+        <v>51550</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -14120,7 +14133,7 @@
       </c>
       <c r="L55" s="161" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS30Y#0003</v>
+        <v>USD_YCRH_OIS30Y#0000</v>
       </c>
       <c r="M55" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -14129,11 +14142,11 @@
       <c r="N55" s="156"/>
       <c r="P55" s="159">
         <f>_xll.qlRateHelperEarliestDate($L55)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="Q55" s="159">
         <f>_xll.qlRateHelperLatestDate($L55)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -14171,7 +14184,7 @@
       </c>
       <c r="L56" s="161" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS35Y#0003</v>
+        <v>USD_YCRH_OIS35Y#0000</v>
       </c>
       <c r="M56" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -14180,11 +14193,11 @@
       <c r="N56" s="156"/>
       <c r="P56" s="159">
         <f>_xll.qlRateHelperEarliestDate($L56)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="Q56" s="159">
         <f>_xll.qlRateHelperLatestDate($L56)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -14222,7 +14235,7 @@
       </c>
       <c r="L57" s="161" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS40Y#0003</v>
+        <v>USD_YCRH_OIS40Y#0000</v>
       </c>
       <c r="M57" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -14231,11 +14244,11 @@
       <c r="N57" s="156"/>
       <c r="P57" s="159">
         <f>_xll.qlRateHelperEarliestDate($L57)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="Q57" s="159">
         <f>_xll.qlRateHelperLatestDate($L57)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -14273,7 +14286,7 @@
       </c>
       <c r="L58" s="161" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS45Y#0003</v>
+        <v>USD_YCRH_OIS45Y#0000</v>
       </c>
       <c r="M58" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -14282,11 +14295,11 @@
       <c r="N58" s="156"/>
       <c r="P58" s="159">
         <f>_xll.qlRateHelperEarliestDate($L58)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="Q58" s="159">
         <f>_xll.qlRateHelperLatestDate($L58)</f>
-        <v>58096</v>
+        <v>58124</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -14324,7 +14337,7 @@
       </c>
       <c r="L59" s="161" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCRH_OIS50Y#0003</v>
+        <v>USD_YCRH_OIS50Y#0000</v>
       </c>
       <c r="M59" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -14333,11 +14346,11 @@
       <c r="N59" s="156"/>
       <c r="P59" s="159">
         <f>_xll.qlRateHelperEarliestDate($L59)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="Q59" s="159">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -14362,7 +14375,7 @@
       <c r="A61" s="158"/>
       <c r="B61" s="167">
         <f>_xll.qlECBdate(E61,,Trigger)</f>
-        <v>41318</v>
+        <v>41346</v>
       </c>
       <c r="C61" s="165"/>
       <c r="D61" s="166" t="s">
@@ -14370,7 +14383,7 @@
       </c>
       <c r="E61" s="165" t="str">
         <f>_xll.qlECBNextCode(_xll.qlSettingsEvaluationDate(Trigger)-365)</f>
-        <v>FEB13</v>
+        <v>MAR13</v>
       </c>
       <c r="F61" s="164" t="s">
         <v>203</v>
@@ -14387,11 +14400,11 @@
       </c>
       <c r="J61" s="162" t="str">
         <f t="shared" ref="J61:J95" si="7">Currency&amp;$D61&amp;$E61&amp;QuoteSuffix</f>
-        <v>USDECBOISFEB13_Quote</v>
+        <v>USDECBOISMAR13_Quote</v>
       </c>
       <c r="K61" s="162" t="str">
         <f t="shared" ref="K61:K95" si="8">$K$2&amp;"_"&amp;$D61&amp;$E61</f>
-        <v>USD_YCRH_ECBOISFEB13</v>
+        <v>USD_YCRH_ECBOISMAR13</v>
       </c>
       <c r="L61" s="161" t="e">
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14399,7 +14412,7 @@
       </c>
       <c r="M61" s="168" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISFEB13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISMAR13_Quote'</v>
       </c>
       <c r="N61" s="156"/>
       <c r="P61" s="159" t="e">
@@ -14415,7 +14428,7 @@
       <c r="A62" s="158"/>
       <c r="B62" s="167">
         <f>_xll.qlECBdate(E62,,Trigger)</f>
-        <v>41346</v>
+        <v>41374</v>
       </c>
       <c r="C62" s="165"/>
       <c r="D62" s="166" t="s">
@@ -14423,7 +14436,7 @@
       </c>
       <c r="E62" s="165" t="str">
         <f>_xll.qlECBNextCode(B61)</f>
-        <v>MAR13</v>
+        <v>APR13</v>
       </c>
       <c r="F62" s="164" t="s">
         <v>203</v>
@@ -14440,11 +14453,11 @@
       </c>
       <c r="J62" s="162" t="str">
         <f t="shared" si="7"/>
-        <v>USDECBOISMAR13_Quote</v>
+        <v>USDECBOISAPR13_Quote</v>
       </c>
       <c r="K62" s="162" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YCRH_ECBOISMAR13</v>
+        <v>USD_YCRH_ECBOISAPR13</v>
       </c>
       <c r="L62" s="161" t="e">
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14452,7 +14465,7 @@
       </c>
       <c r="M62" s="168" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISMAR13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAPR13_Quote'</v>
       </c>
       <c r="N62" s="156"/>
       <c r="P62" s="159" t="e">
@@ -14468,7 +14481,7 @@
       <c r="A63" s="158"/>
       <c r="B63" s="167">
         <f>_xll.qlECBdate(E63,,Trigger)</f>
-        <v>41374</v>
+        <v>41402</v>
       </c>
       <c r="C63" s="165"/>
       <c r="D63" s="166" t="s">
@@ -14476,7 +14489,7 @@
       </c>
       <c r="E63" s="165" t="str">
         <f>_xll.qlECBNextCode(B62)</f>
-        <v>APR13</v>
+        <v>MAY13</v>
       </c>
       <c r="F63" s="164" t="s">
         <v>203</v>
@@ -14493,11 +14506,11 @@
       </c>
       <c r="J63" s="162" t="str">
         <f t="shared" si="7"/>
-        <v>USDECBOISAPR13_Quote</v>
+        <v>USDECBOISMAY13_Quote</v>
       </c>
       <c r="K63" s="162" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YCRH_ECBOISAPR13</v>
+        <v>USD_YCRH_ECBOISMAY13</v>
       </c>
       <c r="L63" s="161" t="e">
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14505,7 +14518,7 @@
       </c>
       <c r="M63" s="168" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAPR13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISMAY13_Quote'</v>
       </c>
       <c r="N63" s="156"/>
       <c r="P63" s="159" t="e">
@@ -14521,7 +14534,7 @@
       <c r="A64" s="158"/>
       <c r="B64" s="167">
         <f>_xll.qlECBdate(E64,,Trigger)</f>
-        <v>41402</v>
+        <v>41437</v>
       </c>
       <c r="C64" s="165"/>
       <c r="D64" s="166" t="s">
@@ -14529,7 +14542,7 @@
       </c>
       <c r="E64" s="165" t="str">
         <f>_xll.qlECBNextCode(B63)</f>
-        <v>MAY13</v>
+        <v>JUN13</v>
       </c>
       <c r="F64" s="164" t="s">
         <v>203</v>
@@ -14546,11 +14559,11 @@
       </c>
       <c r="J64" s="162" t="str">
         <f t="shared" si="7"/>
-        <v>USDECBOISMAY13_Quote</v>
+        <v>USDECBOISJUN13_Quote</v>
       </c>
       <c r="K64" s="162" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YCRH_ECBOISMAY13</v>
+        <v>USD_YCRH_ECBOISJUN13</v>
       </c>
       <c r="L64" s="161" t="e">
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14558,7 +14571,7 @@
       </c>
       <c r="M64" s="168" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISMAY13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUN13_Quote'</v>
       </c>
       <c r="N64" s="156"/>
       <c r="P64" s="159" t="e">
@@ -14574,7 +14587,7 @@
       <c r="A65" s="158"/>
       <c r="B65" s="167">
         <f>_xll.qlECBdate(E65,,Trigger)</f>
-        <v>41437</v>
+        <v>41465</v>
       </c>
       <c r="C65" s="165"/>
       <c r="D65" s="166" t="s">
@@ -14582,7 +14595,7 @@
       </c>
       <c r="E65" s="165" t="str">
         <f>_xll.qlECBNextCode(B64)</f>
-        <v>JUN13</v>
+        <v>JUL13</v>
       </c>
       <c r="F65" s="164" t="s">
         <v>203</v>
@@ -14599,11 +14612,11 @@
       </c>
       <c r="J65" s="162" t="str">
         <f t="shared" si="7"/>
-        <v>USDECBOISJUN13_Quote</v>
+        <v>USDECBOISJUL13_Quote</v>
       </c>
       <c r="K65" s="162" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YCRH_ECBOISJUN13</v>
+        <v>USD_YCRH_ECBOISJUL13</v>
       </c>
       <c r="L65" s="161" t="e">
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14611,7 +14624,7 @@
       </c>
       <c r="M65" s="168" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUN13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUL13_Quote'</v>
       </c>
       <c r="N65" s="156"/>
       <c r="P65" s="159" t="e">
@@ -14627,7 +14640,7 @@
       <c r="A66" s="158"/>
       <c r="B66" s="167">
         <f>_xll.qlECBdate(E66,,Trigger)</f>
-        <v>41465</v>
+        <v>41493</v>
       </c>
       <c r="C66" s="165"/>
       <c r="D66" s="166" t="s">
@@ -14635,7 +14648,7 @@
       </c>
       <c r="E66" s="165" t="str">
         <f>_xll.qlECBNextCode(B65)</f>
-        <v>JUL13</v>
+        <v>AUG13</v>
       </c>
       <c r="F66" s="164" t="s">
         <v>203</v>
@@ -14652,11 +14665,11 @@
       </c>
       <c r="J66" s="162" t="str">
         <f t="shared" si="7"/>
-        <v>USDECBOISJUL13_Quote</v>
+        <v>USDECBOISAUG13_Quote</v>
       </c>
       <c r="K66" s="162" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YCRH_ECBOISJUL13</v>
+        <v>USD_YCRH_ECBOISAUG13</v>
       </c>
       <c r="L66" s="161" t="e">
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14664,7 +14677,7 @@
       </c>
       <c r="M66" s="168" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUL13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAUG13_Quote'</v>
       </c>
       <c r="N66" s="156"/>
       <c r="P66" s="159" t="e">
@@ -14680,7 +14693,7 @@
       <c r="A67" s="158"/>
       <c r="B67" s="167">
         <f>_xll.qlECBdate(E67,,Trigger)</f>
-        <v>41493</v>
+        <v>41528</v>
       </c>
       <c r="C67" s="165"/>
       <c r="D67" s="166" t="s">
@@ -14688,7 +14701,7 @@
       </c>
       <c r="E67" s="165" t="str">
         <f>_xll.qlECBNextCode(B66)</f>
-        <v>AUG13</v>
+        <v>SEP13</v>
       </c>
       <c r="F67" s="164" t="s">
         <v>203</v>
@@ -14705,11 +14718,11 @@
       </c>
       <c r="J67" s="162" t="str">
         <f t="shared" si="7"/>
-        <v>USDECBOISAUG13_Quote</v>
+        <v>USDECBOISSEP13_Quote</v>
       </c>
       <c r="K67" s="162" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YCRH_ECBOISAUG13</v>
+        <v>USD_YCRH_ECBOISSEP13</v>
       </c>
       <c r="L67" s="161" t="e">
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14717,7 +14730,7 @@
       </c>
       <c r="M67" s="168" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAUG13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISSEP13_Quote'</v>
       </c>
       <c r="N67" s="156"/>
       <c r="P67" s="159" t="e">
@@ -14733,7 +14746,7 @@
       <c r="A68" s="158"/>
       <c r="B68" s="167">
         <f>_xll.qlECBdate(E68,,Trigger)</f>
-        <v>41528</v>
+        <v>41556</v>
       </c>
       <c r="C68" s="165"/>
       <c r="D68" s="166" t="s">
@@ -14741,7 +14754,7 @@
       </c>
       <c r="E68" s="165" t="str">
         <f>_xll.qlECBNextCode(B67)</f>
-        <v>SEP13</v>
+        <v>OCT13</v>
       </c>
       <c r="F68" s="164" t="s">
         <v>203</v>
@@ -14758,11 +14771,11 @@
       </c>
       <c r="J68" s="162" t="str">
         <f t="shared" si="7"/>
-        <v>USDECBOISSEP13_Quote</v>
+        <v>USDECBOISOCT13_Quote</v>
       </c>
       <c r="K68" s="162" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YCRH_ECBOISSEP13</v>
+        <v>USD_YCRH_ECBOISOCT13</v>
       </c>
       <c r="L68" s="161" t="e">
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14770,7 +14783,7 @@
       </c>
       <c r="M68" s="168" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISSEP13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISOCT13_Quote'</v>
       </c>
       <c r="N68" s="156"/>
       <c r="P68" s="159" t="e">
@@ -14786,7 +14799,7 @@
       <c r="A69" s="158"/>
       <c r="B69" s="167">
         <f>_xll.qlECBdate(E69,,Trigger)</f>
-        <v>41556</v>
+        <v>41591</v>
       </c>
       <c r="C69" s="165"/>
       <c r="D69" s="166" t="s">
@@ -14794,7 +14807,7 @@
       </c>
       <c r="E69" s="165" t="str">
         <f>_xll.qlECBNextCode(B68)</f>
-        <v>OCT13</v>
+        <v>NOV13</v>
       </c>
       <c r="F69" s="164" t="s">
         <v>203</v>
@@ -14811,11 +14824,11 @@
       </c>
       <c r="J69" s="162" t="str">
         <f t="shared" si="7"/>
-        <v>USDECBOISOCT13_Quote</v>
+        <v>USDECBOISNOV13_Quote</v>
       </c>
       <c r="K69" s="162" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YCRH_ECBOISOCT13</v>
+        <v>USD_YCRH_ECBOISNOV13</v>
       </c>
       <c r="L69" s="161" t="e">
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14823,7 +14836,7 @@
       </c>
       <c r="M69" s="168" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISOCT13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISNOV13_Quote'</v>
       </c>
       <c r="N69" s="156"/>
       <c r="P69" s="159" t="e">
@@ -14839,7 +14852,7 @@
       <c r="A70" s="158"/>
       <c r="B70" s="167">
         <f>_xll.qlECBdate(E70,,Trigger)</f>
-        <v>41591</v>
+        <v>41619</v>
       </c>
       <c r="C70" s="165"/>
       <c r="D70" s="166" t="s">
@@ -14847,7 +14860,7 @@
       </c>
       <c r="E70" s="165" t="str">
         <f>_xll.qlECBNextCode(B69)</f>
-        <v>NOV13</v>
+        <v>DEC13</v>
       </c>
       <c r="F70" s="164" t="s">
         <v>203</v>
@@ -14864,11 +14877,11 @@
       </c>
       <c r="J70" s="162" t="str">
         <f t="shared" si="7"/>
-        <v>USDECBOISNOV13_Quote</v>
+        <v>USDECBOISDEC13_Quote</v>
       </c>
       <c r="K70" s="162" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YCRH_ECBOISNOV13</v>
+        <v>USD_YCRH_ECBOISDEC13</v>
       </c>
       <c r="L70" s="161" t="e">
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14876,7 +14889,7 @@
       </c>
       <c r="M70" s="168" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISNOV13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
       <c r="N70" s="156"/>
       <c r="P70" s="159" t="e">
@@ -14890,17 +14903,17 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="158"/>
-      <c r="B71" s="167">
+      <c r="B71" s="167" t="e">
         <f>_xll.qlECBdate(E71,,Trigger)</f>
-        <v>41619</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C71" s="165"/>
       <c r="D71" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="E71" s="165" t="str">
+      <c r="E71" s="165" t="e">
         <f>_xll.qlECBNextCode(B70)</f>
-        <v>DEC13</v>
+        <v>#NUM!</v>
       </c>
       <c r="F71" s="164" t="s">
         <v>203</v>
@@ -14915,21 +14928,21 @@
       <c r="I71" s="163">
         <v>0</v>
       </c>
-      <c r="J71" s="162" t="str">
+      <c r="J71" s="162" t="e">
         <f t="shared" si="7"/>
-        <v>USDECBOISDEC13_Quote</v>
-      </c>
-      <c r="K71" s="162" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="K71" s="162" t="e">
         <f t="shared" si="8"/>
-        <v>USD_YCRH_ECBOISDEC13</v>
+        <v>#NUM!</v>
       </c>
       <c r="L71" s="161" t="e">
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M71" s="168" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+        <v/>
       </c>
       <c r="N71" s="156"/>
       <c r="P71" s="159" t="e">
